--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-5.025162636811599</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.709486979360417</v>
+        <v>-8.623090872907866</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.03483778945972</v>
+        <v>-3.089615984549502</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.43861077580631</v>
+        <v>-5.454282262307856</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.605465970444237</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.961225778401126</v>
+        <v>-8.866948105637857</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.121849234145831</v>
+        <v>-3.18881636318126</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.369143016928111</v>
+        <v>-5.384893057246708</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.202181581944311</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.778826998564076</v>
+        <v>-9.685138479428685</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.003756662513462</v>
+        <v>-3.073551728962704</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.239201911223979</v>
+        <v>-5.260450718736101</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.855189131812395</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.54767248294444</v>
+        <v>-10.45050141125315</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.911416650570768</v>
+        <v>-2.976118811214579</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.452462432212855</v>
+        <v>-5.464415704707352</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.551804447233005</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.32573494852538</v>
+        <v>-11.2310775989797</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.760658783348293</v>
+        <v>-2.824483759701707</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.005176997928126</v>
+        <v>-5.017968177804493</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.289897406558369</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.98995984089751</v>
+        <v>-11.88882180144518</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.732471055330056</v>
+        <v>-2.789789157171133</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.137749656503445</v>
+        <v>-5.162245355120314</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.055763892508582</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.49085825531911</v>
+        <v>-12.38337044898854</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.610647177387795</v>
+        <v>-2.671408554876246</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.697075835153787</v>
+        <v>-4.721401333833714</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.83232958368801</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.46226784926666</v>
+        <v>-13.36454690085601</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.357337302006079</v>
+        <v>-2.417234587506976</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.610915390152387</v>
+        <v>-4.636550119116487</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.594787709251268</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.20791377301148</v>
+        <v>-14.1086741174712</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.334085372159174</v>
+        <v>-2.393956473054387</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.230374515754778</v>
+        <v>-4.273408915195531</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.32531832578303</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.90284011554746</v>
+        <v>-14.80943962707459</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.159813729032958</v>
+        <v>-2.21497160090515</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.018043548267664</v>
+        <v>-4.059231933007735</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.005505028168052</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.5616709791488</v>
+        <v>-15.47531414960477</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.150020686507347</v>
+        <v>-2.196550730806841</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.501591478070096</v>
+        <v>-3.539834094670778</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.617713493796599</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.5306192201621</v>
+        <v>-16.44820317377344</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.981627487357066</v>
+        <v>-2.033944329512604</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.863001314662065</v>
+        <v>-2.899659762618898</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.159240435485368</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.16792633789164</v>
+        <v>-17.09039372046294</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.706715312286502</v>
+        <v>-1.747013420433335</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.492960467143519</v>
+        <v>-2.538953727026503</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.6350489141493293</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.0697765268411</v>
+        <v>-17.99826636871959</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.541372619698344</v>
+        <v>-1.57797869844381</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.902510701284516</v>
+        <v>-1.94062239485678</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.05280238490323703</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.98162923516164</v>
+        <v>-18.9176078742656</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.378988787552415</v>
+        <v>-1.40974260692763</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.534852652883164</v>
+        <v>-1.593912031002191</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5670103325416528</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.76845045134369</v>
+        <v>-19.70966601158434</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.137317969396994</v>
+        <v>-1.164052451799799</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.006957910001927</v>
+        <v>-1.062011043451386</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.198519853606086</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.75026842605041</v>
+        <v>-20.69810869152898</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.041181189630199</v>
+        <v>-1.066069657332321</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6448117210969426</v>
+        <v>-0.7055600062825517</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.818125788352432</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.5894981305079</v>
+        <v>-21.54109588690203</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8901091071395223</v>
+        <v>-0.9169614202679024</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2730295973004475</v>
+        <v>-0.333607682549114</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.400906925709034</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.23827410552679</v>
+        <v>-22.19302710690578</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6383048465846048</v>
+        <v>-0.6590823311944241</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09944641854665913</v>
+        <v>0.03928728698892785</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.923903713429933</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.86611548830176</v>
+        <v>-22.82255739674734</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3391719112568476</v>
+        <v>-0.3572131045727461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4210719301565017</v>
+        <v>0.3542095395438067</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.371760471405786</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.49578979347458</v>
+        <v>-23.45373731674696</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07613445486372916</v>
+        <v>-0.08316502148973606</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3913131257972584</v>
+        <v>0.315102830955571</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.734781555237481</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.00201677515276</v>
+        <v>-23.96562017325276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03725798004846031</v>
+        <v>0.03139262837536703</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6578593193519594</v>
+        <v>0.5737674581995529</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.00574993231073</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.3820339574367</v>
+        <v>-24.355456582668</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01620555707896479</v>
+        <v>0.01607463405054753</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5871608840066387</v>
+        <v>0.5042735147156709</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.182538203352332</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65426221042471</v>
+        <v>-24.62451649836831</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3040791119628376</v>
+        <v>0.3044456964424059</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5754170883576103</v>
+        <v>0.4947815951554195</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.268966597947405</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.6663071290391</v>
+        <v>-24.64081641540626</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3171845071074054</v>
+        <v>0.3188865064768298</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4194746692098111</v>
+        <v>0.3332094857856781</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.271744290541535</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63399532562572</v>
+        <v>-24.62236936070227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354240667557224</v>
+        <v>0.1366023740114777</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3946254784162151</v>
+        <v>0.3089625409228014</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.200615468740488</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.74356480810813</v>
+        <v>-24.73582725712866</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2552840992717245</v>
+        <v>0.2506887009742787</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1046571550776661</v>
+        <v>0.02436206174936013</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.071595068676759</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.7843473314601</v>
+        <v>-24.7837189009237</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2101287467706113</v>
+        <v>0.1942477834235976</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003911884710584014</v>
+        <v>-0.06799104249617555</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.903193583099137</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55991907614723</v>
+        <v>-24.55402753986846</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0775822728009766</v>
+        <v>0.07415208945644437</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.192904703909084</v>
+        <v>-0.2620189706105559</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.711663955654207</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.09008869636905</v>
+        <v>-24.0831366835601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07902242611356647</v>
+        <v>0.07125869052842292</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6582837007210788</v>
+        <v>-0.7197651548658244</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.516546294819347</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.16732019083239</v>
+        <v>-24.17245237354635</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1412894184288156</v>
+        <v>0.1371522507308302</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7264815062236298</v>
+        <v>-0.7687303674938799</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.338394835160563</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.74726674645845</v>
+        <v>-23.74858906904547</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05968509481633707</v>
+        <v>0.05006225222766841</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.193209010228323</v>
+        <v>-1.227602489793537</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.188765601470867</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18395732439035</v>
+        <v>-23.18559386224556</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09274858716987955</v>
+        <v>-0.1071370279929365</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.270073920212096</v>
+        <v>-1.299282847851987</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.078895548936543</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83812414482615</v>
+        <v>-22.84425134255608</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2856898541483966</v>
+        <v>-0.2987297877787558</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.296049049050081</v>
+        <v>-1.318882025206051</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.020153835471361</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.11353064405083</v>
+        <v>-22.11692155048683</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4119651150568445</v>
+        <v>-0.4324283843984624</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.50409883350795</v>
+        <v>-1.51919425868446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.012673282152719</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30760775802269</v>
+        <v>-21.30424303619237</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3479830310693293</v>
+        <v>-0.3676476699376018</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.623932681418268</v>
+        <v>-1.648179626281145</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.054488484757784</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.93252637391008</v>
+        <v>-20.92684431447677</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4084694701981037</v>
+        <v>-0.4200037890016644</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.873380327461675</v>
+        <v>-1.897025026393832</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.145223413876908</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27742681661864</v>
+        <v>-20.27288378753256</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2573712031017431</v>
+        <v>-0.2744959352187208</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.027974239416777</v>
+        <v>-2.04749486295379</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.275935737319914</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96588237819692</v>
+        <v>-19.96999336128922</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5374548377947889</v>
+        <v>-0.5564779538238169</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.25024226476076</v>
+        <v>-2.273598933030399</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.435055118742637</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.43767342004748</v>
+        <v>-19.43154622231756</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2599372944587214</v>
+        <v>-0.2798114101724616</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.095910198862493</v>
+        <v>-2.116281822084219</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.614844640298521</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87605290504596</v>
+        <v>-18.88050428801215</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.006535772957113387</v>
+        <v>-0.0183450301203503</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.077253667313034</v>
+        <v>-2.084572264601559</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.803030762682871</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9776852686524</v>
+        <v>-17.97631057685402</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01457444690193319</v>
+        <v>-0.0290414415420405</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.969359999594369</v>
+        <v>-1.976626227671527</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.985193706755397</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.64154039319109</v>
+        <v>-17.64283653117241</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03284587399079863</v>
+        <v>0.02065694004515166</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.171452786259253</v>
+        <v>-2.180957798122346</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.15267225290778</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12745802980787</v>
+        <v>-17.13543124223848</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001869485467274748</v>
+        <v>-0.0100576024215377</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.214565739517056</v>
+        <v>-2.220326352767416</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.295753107839958</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.7481216472717</v>
+        <v>-16.76040222733724</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02320993909928824</v>
+        <v>0.00519493038907317</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.159316221524973</v>
+        <v>-2.157064345436196</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.403251676515251</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08627955401676</v>
+        <v>-16.08266607843245</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03369687367551082</v>
+        <v>0.01120429739342543</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.453696650921183</v>
+        <v>-2.447621822402622</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.470585109074837</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4318346118674</v>
+        <v>-15.43252850391801</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006766006730080298</v>
+        <v>-0.02133007516826384</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.389518182391042</v>
+        <v>-2.38176753910874</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.495882000316684</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.89761628671361</v>
+        <v>-14.89622850261239</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1526142603869087</v>
+        <v>0.1335387751465138</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.579985004132473</v>
+        <v>-2.559875226967582</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.475526136331036</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.20287323641742</v>
+        <v>-14.19171859439627</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2992742368199241</v>
+        <v>0.2759044762474431</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.504102016861828</v>
+        <v>-2.467666138053305</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.412013187687683</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.43063684560104</v>
+        <v>-13.42685317007979</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2944693616770107</v>
+        <v>0.2741108307581266</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.575284867412293</v>
+        <v>-2.534803467025676</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.312215958289848</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83911351090902</v>
+        <v>-12.84236040201377</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3774483770878705</v>
+        <v>0.3569720154434109</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.586230032587976</v>
+        <v>-2.548039785198661</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.179401711058711</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.18930324396563</v>
+        <v>-12.18741795235642</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4281024967825086</v>
+        <v>0.4072333660527973</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.608159639847867</v>
+        <v>-2.566447562994128</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.019907197267114</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81419567524734</v>
+        <v>-11.81073930729712</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3178260299466499</v>
+        <v>0.2959487918981257</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.716210415200632</v>
+        <v>-2.671644216327397</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.844950170561896</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.35638402947786</v>
+        <v>-11.35749687521941</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06909846055953811</v>
+        <v>0.04843880667529437</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.18683942545216</v>
+        <v>-3.136093659637629</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.659892334515006</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.91801445342834</v>
+        <v>-10.90521018124914</v>
       </c>
       <c r="F56" t="n">
-        <v>0.158047566066225</v>
+        <v>0.1403336803213696</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.257603322311689</v>
+        <v>-3.206569525834641</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.46952578147269</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.16027124185777</v>
+        <v>-10.15015089176111</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09739092700050814</v>
+        <v>0.07242390548133654</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.619369834434264</v>
+        <v>-3.575628450640057</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.282280912668356</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.856804754289398</v>
+        <v>-9.850193141354325</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07691999303423273</v>
+        <v>-0.1026594604210662</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.654417929141564</v>
+        <v>-3.607351100425559</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.100753488810998</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.310580787429744</v>
+        <v>-9.306142496766398</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0113352204218427</v>
+        <v>-0.01225710929894768</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.936373763140977</v>
+        <v>-3.894923532344072</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.925472389566822</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.949377244329364</v>
+        <v>-8.935420849500083</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1254138827599861</v>
+        <v>-0.1476315206823952</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.850658456436197</v>
+        <v>-3.803342873966198</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>2.761275882830345</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.417240595327407</v>
+        <v>-8.406190691728991</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1480635666761722</v>
+        <v>-0.1731746035266028</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.252788538219813</v>
+        <v>-4.206088293983376</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>2.609706097772674</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.912335936236241</v>
+        <v>-7.892042866831566</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09388761751710971</v>
+        <v>-0.1146389175212455</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.212673722312764</v>
+        <v>-4.160042664889025</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.469960786715621</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.430211884089679</v>
+        <v>-7.412065952351047</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1450392447197335</v>
+        <v>-0.1752955565869624</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.215265998275425</v>
+        <v>-4.163132448359672</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.34612367352906</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.077348137899478</v>
+        <v>-7.051988347295055</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3033644629847268</v>
+        <v>-0.3329661597098694</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.460340815169696</v>
+        <v>-4.413273986453691</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.241177876107976</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.704610275995536</v>
+        <v>-6.682431914981652</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2506024825325707</v>
+        <v>-0.2765776113705553</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.74253231062026</v>
+        <v>-4.700623849223894</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.15533290242453</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.45494006080382</v>
+        <v>-6.433534145657599</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3661682397164868</v>
+        <v>-0.3951545982080683</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.733184406391267</v>
+        <v>-4.697822096415765</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.093372367630318</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.292831167017568</v>
+        <v>-6.266541822911383</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4224651419359088</v>
+        <v>-0.4506790545598285</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.844521349757306</v>
+        <v>-4.81671329852148</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.060158397539821</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.015483823618443</v>
+        <v>-5.990097848408337</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.389001215872457</v>
+        <v>-0.4181839589066644</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.843081196444715</v>
+        <v>-4.810415900854609</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.055453731038724</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.878944197282082</v>
+        <v>-5.857826312798379</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6435679523269787</v>
+        <v>-0.6783018317660779</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.939636929902446</v>
+        <v>-4.914316416206547</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.082633234118027</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.648231636605185</v>
+        <v>-5.616757740573676</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.591264202474283</v>
+        <v>-0.6210230068335264</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.80245578072684</v>
+        <v>-4.784584787347884</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>2.145261879678372</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.524103513362781</v>
+        <v>-5.495064785659832</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6860524750483797</v>
+        <v>-0.7222396001029107</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.776519928797381</v>
+        <v>-4.762537349362417</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.239773460567902</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.506887135125911</v>
+        <v>-5.469600256632675</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7802385016917571</v>
+        <v>-0.8142915813830867</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.674766551111485</v>
+        <v>-4.661778986692493</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.36647776656378</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.544383490464615</v>
+        <v>-5.504334136071774</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8353440043525822</v>
+        <v>-0.875354081836897</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.484168806341637</v>
+        <v>-4.478316546971386</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.526673956892894</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.781668387168057</v>
+        <v>-5.740061048737052</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7282489671072629</v>
+        <v>-0.7671331065471894</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.371823755656786</v>
+        <v>-4.366050050103585</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.713534376088528</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.982582866577186</v>
+        <v>-5.939417544108015</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.056525368560702</v>
+        <v>-1.09746499954678</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.205355125024239</v>
+        <v>-4.203993525528699</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.924606061109499</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.507885333495761</v>
+        <v>-6.469760547620655</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9709540771871807</v>
+        <v>-1.007625617446855</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.041099093571944</v>
+        <v>-4.0331782503527</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.158854494410639</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.972622807468511</v>
+        <v>-6.938137681783405</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.02912317871297</v>
+        <v>-1.065637611338544</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.96271547645853</v>
+        <v>-3.95657518642576</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.40838890546095</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.549194732315286</v>
+        <v>-7.516306867576869</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.115283623714369</v>
+        <v>-1.161669652682604</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.565573562057611</v>
+        <v>-3.549142721991245</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.668467210559096</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.973437713598577</v>
+        <v>-7.942657709617679</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.079161960174047</v>
+        <v>-1.126673927186671</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.361045607064167</v>
+        <v>-3.340831091476542</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.937537697886715</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.445677077099637</v>
+        <v>-8.414242457976652</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.267534013460801</v>
+        <v>-1.31022801302767</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.994304019861736</v>
+        <v>-2.972780273989938</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>4.208881332433998</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.387000559116899</v>
+        <v>-9.356155093621792</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.18970027306674</v>
+        <v>-1.232917964747278</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.975464196072492</v>
+        <v>-2.948572606035587</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.477389820299143</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.20746899360219</v>
+        <v>-10.18584050930766</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28155586980429</v>
+        <v>-1.326645760791195</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.799464368971169</v>
+        <v>-2.775845854644695</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>4.743554545186318</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04088571559794</v>
+        <v>-11.02150910739219</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.38736786137112</v>
+        <v>-1.439003903778888</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.426988353124062</v>
+        <v>-2.398185286872265</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>5.003739645487726</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.25401849691228</v>
+        <v>-12.2379280567198</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.465777663090218</v>
+        <v>-1.511181769345324</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.319683839033275</v>
+        <v>-2.296667570637521</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>5.252277950145439</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13822026163109</v>
+        <v>-13.12910801885325</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.561286012320609</v>
+        <v>-1.611062947724852</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.977869996441491</v>
+        <v>-1.95199960602624</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>5.488984252526834</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32584923700975</v>
+        <v>-14.32082179271853</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.765997259553838</v>
+        <v>-1.825724345117792</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.730019611344775</v>
+        <v>-1.708417311655927</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.71012433092594</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42375666101406</v>
+        <v>-15.4262180139483</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.808848366754807</v>
+        <v>-1.864359730803726</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.316551595300224</v>
+        <v>-1.291702404506628</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>5.906564540083295</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83285503126335</v>
+        <v>-16.84869671770184</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.827112129219015</v>
+        <v>-1.893280627781099</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.007154294544553</v>
+        <v>-0.9871754404080794</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>6.073722340015411</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.5187770527981</v>
+        <v>-18.54212062876489</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.055952490589545</v>
+        <v>-2.116478206626845</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7994972791719361</v>
+        <v>-0.78124660901057</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>6.205025390060247</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13070137867141</v>
+        <v>-20.1585617991186</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.278259792842054</v>
+        <v>-2.341364692539174</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5067926645394665</v>
+        <v>-0.4945120844739274</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.287278301733554</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.95568984099097</v>
+        <v>-21.98631273733777</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.484947977804383</v>
+        <v>-2.554166982928589</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6635206218577692</v>
+        <v>-0.6605879460212226</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>6.310032472932698</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67476157332097</v>
+        <v>-23.71075231383288</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.584789879275386</v>
+        <v>-2.658970867176606</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4846666727369494</v>
+        <v>-0.482152950591338</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.265715772830284</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75079494263063</v>
+        <v>-25.79299143468952</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.763264151613796</v>
+        <v>-2.831697618567498</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.480241474376446</v>
+        <v>-0.4752794915994318</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.141564586054303</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.01387804264004</v>
+        <v>-28.06565810037906</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.635496368181391</v>
+        <v>-2.703275219993007</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.616689454592915</v>
+        <v>-0.6097767186924837</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>5.930689723566309</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.29564385880458</v>
+        <v>-30.34353550259961</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.125515078941515</v>
+        <v>-3.190911131635936</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9932371766237985</v>
+        <v>-0.9980027748581868</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>5.626741246539335</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47671677381341</v>
+        <v>-32.5292692774201</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.18721910223457</v>
+        <v>-3.248910033224783</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.218516431621379</v>
+        <v>-1.224146121843321</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.23642173506419</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70253917993526</v>
+        <v>-34.75304928429864</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.559564195053259</v>
+        <v>-3.624384186422645</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.448980238544283</v>
+        <v>-1.459296973183563</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.742078571535687</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.2095580664917</v>
+        <v>-37.25356129634274</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.80987593308422</v>
+        <v>-3.864876697322311</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.872398404748546</v>
+        <v>-1.893319904689624</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.181125191631367</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.74094172863659</v>
+        <v>-39.78696117312526</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.708646247511994</v>
+        <v>-3.754835891937603</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.347779920931619</v>
+        <v>-2.37440966491169</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.519715280312156</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.31131426864415</v>
+        <v>-42.35212297660181</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.891859933479108</v>
+        <v>-3.939411177400257</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.704479711854446</v>
+        <v>-2.738349499305991</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.835634406013005</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.5665681715542</v>
+        <v>-44.58993793212668</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.134434120530609</v>
+        <v>-4.173357536879061</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.309056072479672</v>
+        <v>-3.348673380878735</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.032971398664314</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87792259214104</v>
+        <v>-46.88780728078655</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.278514913303805</v>
+        <v>-4.314623484541285</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.587948307614121</v>
+        <v>-3.620587418598544</v>
       </c>
     </row>
   </sheetData>
